--- a/Backup/macro.xlsx
+++ b/Backup/macro.xlsx
@@ -1,29 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -42,80 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -440,403 +396,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>NumeroProcesso</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Processi</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ricerca</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ParoleChiave</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
+      <c r="A1" t="str">
+        <v>NumeroProcesso</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Processi</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Ricerca</v>
+      </c>
+      <c r="D1" t="str">
+        <v>ParoleChiave</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Nome</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>bamboo toilet paper 5 ply 50m bamboo core 100 percent bamboo pulp plastic free FSC Ecolabel OEM</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>packaging sostenibile</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Carta</t>
-        </is>
+      <c r="A2" t="str">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>bamboo toilet paper 5 ply 50m bamboo core 100 percent bamboo pulp plastic free FSC Ecolabel OEM</v>
+      </c>
+      <c r="D2" t="str">
+        <v>packaging sostenibile</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Carta</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>bamboo jumbo tissue roll large and mini jumbo 100 percent bamboo pulp plastic free FSC OEM</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>imballaggio sostenibile</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Bamboo</t>
-        </is>
+      <c r="B3" t="str">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>bamboo jumbo tissue roll large and mini jumbo 100 percent bamboo pulp plastic free FSC OEM</v>
+      </c>
+      <c r="D3" t="str">
+        <v>imballaggio sostenibile</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Bamboo</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>bamboo paper hand towels roll or folded 100 percent bamboo pulp plastic free FSC OEM</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>packaging ecologico</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Paper</t>
-        </is>
+      <c r="B4" t="str">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>ddd</v>
+      </c>
+      <c r="D4" t="str">
+        <v>packaging ecologico</v>
+      </c>
+      <c r="E4" t="str">
+        <v>ddd</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A4 copy paper 80gsm 100 percent bamboo pulp plastic free FSC Ecolabel OEM custom logo</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>imballaggio ecologico</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
+      <c r="D5" t="str">
+        <v>imballaggio ecologico</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>notebooks and bloc-notes bamboo paper pages kraft cover plastic free FSC custom logo</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>packaging biodegradabile</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>notebooks</t>
-        </is>
+      <c r="D6" t="str">
+        <v>packaging biodegradabile</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>facial tissues 100 percent bamboo pulp pocket or box plastic free FSC Ecolabel OEM</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>imballaggio biodegradabile</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>facial tissues</t>
-        </is>
+      <c r="D7" t="str">
+        <v>imballaggio biodegradabile</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>kraft paper tape water-activated gummed biodegradable plastic free FSC custom print</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>packaging compostabile</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Kraft Paper</t>
-        </is>
+      <c r="D8" t="str">
+        <v>packaging compostabile</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>bamboo kraft recycled paper packaging boxes and mailers plastic free FSC custom branding</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>imballaggio compostabile</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Kraft recycled</t>
-        </is>
+      <c r="D9" t="str">
+        <v>imballaggio compostabile</v>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>packaging riciclabile</t>
-        </is>
+      <c r="D10" t="str">
+        <v>packaging riciclabile</v>
       </c>
     </row>
     <row r="11">
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>imballaggio riciclabile</t>
-        </is>
+      <c r="D11" t="str">
+        <v>imballaggio riciclabile</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>carta kraft</t>
-        </is>
+      <c r="D12" t="str">
+        <v>carta kraft</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>carta riciclata</t>
-        </is>
+      <c r="D13" t="str">
+        <v>carta riciclata</v>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>cellulosa di bambù</t>
-        </is>
+      <c r="D14" t="str">
+        <v>cellulosa di bambù</v>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>fibra di bambù</t>
-        </is>
+      <c r="D15" t="str">
+        <v>fibra di bambù</v>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>materiale riciclato</t>
-        </is>
+      <c r="D16" t="str">
+        <v>materiale riciclato</v>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>materiale ecologico</t>
-        </is>
+      <c r="D17" t="str">
+        <v>materiale ecologico</v>
       </c>
     </row>
     <row r="18">
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>materiale sostenibile</t>
-        </is>
+      <c r="D18" t="str">
+        <v>materiale sostenibile</v>
       </c>
     </row>
     <row r="19">
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>bambù naturale</t>
-        </is>
+      <c r="D19" t="str">
+        <v>bambù naturale</v>
       </c>
     </row>
     <row r="20">
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>cartone riciclato</t>
-        </is>
+      <c r="D20" t="str">
+        <v>cartone riciclato</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>eco friendly</t>
-        </is>
+      <c r="D21" t="str">
+        <v>eco friendly</v>
       </c>
     </row>
     <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>prodotto ecologico</t>
-        </is>
+      <c r="D22" t="str">
+        <v>prodotto ecologico</v>
       </c>
     </row>
     <row r="23">
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>scatola ecologica</t>
-        </is>
+      <c r="D23" t="str">
+        <v>scatola ecologica</v>
       </c>
     </row>
     <row r="24">
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>scatola sostenibile</t>
-        </is>
+      <c r="D24" t="str">
+        <v>scatola sostenibile</v>
       </c>
     </row>
     <row r="25">
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>packaging personalizzato</t>
-        </is>
+      <c r="D25" t="str">
+        <v>packaging personalizzato</v>
       </c>
     </row>
     <row r="26">
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>imballaggio personalizzato</t>
-        </is>
+      <c r="D26" t="str">
+        <v>imballaggio personalizzato</v>
       </c>
     </row>
     <row r="27">
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>stampa personalizzata</t>
-        </is>
+      <c r="D27" t="str">
+        <v>stampa personalizzata</v>
       </c>
     </row>
     <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>etichetta ecologica</t>
-        </is>
+      <c r="D28" t="str">
+        <v>etichetta ecologica</v>
       </c>
     </row>
     <row r="29">
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>busta compostabile</t>
-        </is>
+      <c r="D29" t="str">
+        <v>busta compostabile</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>sacchetto biodegradabile</t>
-        </is>
+      <c r="D30" t="str">
+        <v>sacchetto biodegradabile</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>spedizione campioni</t>
-        </is>
+      <c r="D31" t="str">
+        <v>spedizione campioni</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>bambu</t>
-        </is>
+      <c r="D32" t="str">
+        <v>bambu</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>bambù</t>
-        </is>
+      <c r="D33" t="str">
+        <v>bambù</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>kraft</t>
-        </is>
+      <c r="D34" t="str">
+        <v>kraft</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E34"/>
+  </ignoredErrors>
 </worksheet>
 </file>